--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -230,6 +230,53 @@
   </si>
   <si>
     <t>アレスタ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリートコマンダーII</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動時にフリーズ</t>
+    <rPh sb="0" eb="3">
+      <t>キドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英雄伝説</t>
+    <rPh sb="0" eb="2">
+      <t>エイユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イシターの復活</t>
+    <rPh sb="5" eb="7">
+      <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信長の野望・武将風雲録</t>
+    <rPh sb="0" eb="2">
+      <t>ノブナガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤボウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フウウン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -572,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,6 +974,156 @@
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>46026</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>46026</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>46026</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>46026</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -277,6 +277,18 @@
     <rPh sb="10" eb="11">
       <t>ロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッスルエクセレント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースマンボウ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,10 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,16 +1073,61 @@
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1">
+        <v>46026</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>46026</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>46026</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -1127,6 +1187,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -289,6 +289,69 @@
   </si>
   <si>
     <t>スペースマンボウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xak2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードス島戦記</t>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードス島戦記 福神漬け</t>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フクジンヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソーサリアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街の武器屋の顔グラフィックに格子状に黒い帯が入る</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コウシジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オビ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,8 +699,8 @@
   </sheetPr>
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1133,25 +1196,100 @@
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1">
+        <v>46026</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>46027</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>46027</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>46027</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1">
+        <v>46027</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">

--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -352,6 +352,14 @@
     <rPh sb="22" eb="23">
       <t>ハイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブンガルア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -700,7 +708,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,6 +1304,21 @@
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1">
+        <v>46027</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">

--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/doc/v9968_compatibility_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>ROM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エメラルドドラゴン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -708,7 +712,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,6 +1328,21 @@
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1">
+        <v>46027</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33">
